--- a/Productos.xlsx
+++ b/Productos.xlsx
@@ -460,7 +460,7 @@
         <v>37.9</v>
       </c>
       <c r="C2" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -512,7 +512,7 @@
         <v>30.9</v>
       </c>
       <c r="C6" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
@@ -564,7 +564,7 @@
         <v>27.9</v>
       </c>
       <c r="C10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
